--- a/prediction_accuracy.xlsx
+++ b/prediction_accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarav/Documents/website/stock_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8FA8F481-5FD4-4C44-BBC9-3D95D2AD5286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F50F6-3BDD-9245-861F-650B298E56C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,13 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Time Series Forecast</t>
   </si>
@@ -72,6 +66,48 @@
   </si>
   <si>
     <t>LT</t>
+  </si>
+  <si>
+    <t>State Bank Of India</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>Tata Consultancy Services</t>
+  </si>
+  <si>
+    <t>Adani Enterprises</t>
+  </si>
+  <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
+    <t>Maruti</t>
+  </si>
+  <si>
+    <t>ULTRACEMCO</t>
+  </si>
+  <si>
+    <t>UltraTech Cement Limited</t>
   </si>
 </sst>
 </file>
@@ -179,44 +215,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -228,9 +264,9 @@
     <cellStyle name="Table Text" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -248,6 +284,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -307,10 +350,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Task List" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="totalRow" dxfId="3"/>
-      <tableStyleElement type="firstColumn" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -329,10 +372,10 @@
   <autoFilter ref="B2:F18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company Name" dataCellStyle="Table Text"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ticker" dataDxfId="0" dataCellStyle="Date"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Forecast Date" dataCellStyle="Date"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ticker" dataDxfId="2" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Forecast Date" dataDxfId="0" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Forecast Return" dataDxfId="1" dataCellStyle="Table Text"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual Return" dataCellStyle="Table Text"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual Return" dataDxfId="3" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -553,171 +596,221 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="8">
+        <v>45481</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="8">
         <v>45481</v>
       </c>
-      <c r="E3" s="9">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="6">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45481</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45481</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45481</v>
+      </c>
+      <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45481</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45481</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45481</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>

--- a/prediction_accuracy.xlsx
+++ b/prediction_accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarav/Documents/website/stock_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F50F6-3BDD-9245-861F-650B298E56C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B7394-0F5B-CC40-8E82-D979EE42343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Time Series Forecast</t>
   </si>
@@ -227,32 +227,32 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -287,10 +287,10 @@
       <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -368,14 +368,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:F18" totalsRowShown="0" headerRowCellStyle="Heading 1">
-  <autoFilter ref="B2:F18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:F26" totalsRowShown="0" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B2:F26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company Name" dataCellStyle="Table Text"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ticker" dataDxfId="2" dataCellStyle="Date"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Forecast Date" dataDxfId="0" dataCellStyle="Date"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ticker" dataDxfId="3" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Forecast Date" dataDxfId="2" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Forecast Return" dataDxfId="1" dataCellStyle="Table Text"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual Return" dataDxfId="3" dataCellStyle="Table Text"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual Return" dataDxfId="0" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -593,10 +593,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -604,20 +604,20 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -626,13 +626,13 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -643,13 +643,15 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>45481</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
     </row>
     <row r="4" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -658,13 +660,15 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>45481</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>-2.3E-3</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="5">
+        <v>-3.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -673,13 +677,15 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>45481</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="13">
+        <v>8.2000000000000007E-3</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -688,13 +694,15 @@
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>45481</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="5">
+        <v>7.6E-3</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -703,13 +711,15 @@
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>45481</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="5">
+        <v>-3.7000000000000002E-3</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -718,13 +728,15 @@
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>45481</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="5">
+        <v>-1.14E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -733,13 +745,15 @@
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>45481</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>2.3E-3</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="5">
+        <v>-4.8999999999999998E-3</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -748,69 +762,239 @@
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>45481</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="5">
+        <v>-9.4999999999999998E-3</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45482</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45482</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45482</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45482</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45482</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45482</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45482</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5.3E-3</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45482</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>

--- a/prediction_accuracy.xlsx
+++ b/prediction_accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarav/Documents/website/stock_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B7394-0F5B-CC40-8E82-D979EE42343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA3DE5-7568-4146-B0FE-5F996CB7D5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>Time Series Forecast</t>
   </si>
@@ -236,9 +236,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -248,11 +245,14 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -266,6 +266,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -593,10 +594,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -604,20 +605,20 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -626,13 +627,13 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -683,7 +684,7 @@
       <c r="E5" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="5">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
@@ -785,7 +786,9 @@
       <c r="E11" s="6">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="5">
+        <v>9.2999999999999992E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -800,7 +803,9 @@
       <c r="E12" s="6">
         <v>1.5E-3</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -815,7 +820,9 @@
       <c r="E13" s="6">
         <v>-6.9999999999999999E-4</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="5">
+        <v>-3.3E-3</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -830,7 +837,9 @@
       <c r="E14" s="6">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="5">
+        <v>-8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -845,7 +854,9 @@
       <c r="E15" s="6">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="5">
+        <v>-2.3999999999999998E-3</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -860,7 +871,9 @@
       <c r="E16" s="6">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="5">
+        <v>-5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -875,7 +888,9 @@
       <c r="E17" s="6">
         <v>5.3E-3</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="5">
+        <v>6.5199999999999994E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -890,7 +905,9 @@
       <c r="E18" s="6">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="5">
+        <v>7.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -902,8 +919,10 @@
       <c r="D19" s="7">
         <v>45483</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="6">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -915,8 +934,10 @@
       <c r="D20" s="7">
         <v>45483</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
@@ -928,8 +949,10 @@
       <c r="D21" s="7">
         <v>45483</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8"/>
+      <c r="E21" s="6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
@@ -941,8 +964,10 @@
       <c r="D22" s="7">
         <v>45483</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
+      <c r="E22" s="6">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -954,8 +979,10 @@
       <c r="D23" s="7">
         <v>45483</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8"/>
+      <c r="E23" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -967,8 +994,10 @@
       <c r="D24" s="7">
         <v>45483</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="6">
+        <v>1.9E-3</v>
+      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
@@ -980,8 +1009,10 @@
       <c r="D25" s="7">
         <v>45483</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
@@ -993,8 +1024,114 @@
       <c r="D26" s="7">
         <v>45483</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8"/>
+      <c r="E26" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7">
+        <v>45484</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7">
+        <v>45484</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7">
+        <v>45484</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45484</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7">
+        <v>45484</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7">
+        <v>45484</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="7">
+        <v>45484</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7">
+        <v>45484</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>

--- a/prediction_accuracy.xlsx
+++ b/prediction_accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarav/Documents/website/stock_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA3DE5-7568-4146-B0FE-5F996CB7D5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62339271-5543-5448-B9CD-1B1597C16778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
   <si>
     <t>Time Series Forecast</t>
   </si>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -170,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,6 +202,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -211,7 +237,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -253,6 +279,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -594,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F34"/>
+  <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -875,7 +916,7 @@
         <v>-5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -892,7 +933,7 @@
         <v>6.5199999999999994E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
@@ -909,7 +950,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -922,9 +963,11 @@
       <c r="E19" s="6">
         <v>1.8E-3</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,9 +980,11 @@
       <c r="E20" s="6">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="5">
+        <v>-1.43E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -952,9 +997,11 @@
       <c r="E21" s="6">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="5">
+        <v>-5.3E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
@@ -967,9 +1014,11 @@
       <c r="E22" s="6">
         <v>-1.1000000000000001E-3</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="5">
+        <v>-3.8E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
@@ -982,9 +1031,11 @@
       <c r="E23" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="5">
+        <v>-1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -997,9 +1048,11 @@
       <c r="E24" s="6">
         <v>1.9E-3</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="5">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1012,9 +1065,11 @@
       <c r="E25" s="6">
         <v>1E-4</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="5">
+        <v>-4.3E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1027,111 +1082,241 @@
       <c r="E26" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+      <c r="F26" s="5">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="16">
         <v>45484</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="E27" s="17">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="16">
         <v>45484</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+      <c r="E28" s="17">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="16">
         <v>45484</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="E29" s="17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="16">
         <v>45484</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+      <c r="E30" s="17">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="16">
         <v>45484</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+      <c r="E31" s="17">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="16">
         <v>45484</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="E32" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="16">
         <v>45484</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+      <c r="E33" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="16">
         <v>45484</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="17">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="16">
+        <v>45485</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="16">
+        <v>45485</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="16">
+        <v>45485</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="16">
+        <v>45485</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="16">
+        <v>45485</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="16">
+        <v>45485</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="16">
+        <v>45485</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="16">
+        <v>45485</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>

--- a/prediction_accuracy.xlsx
+++ b/prediction_accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarav/Documents/website/stock_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62339271-5543-5448-B9CD-1B1597C16778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8FF0B5-E8DE-5042-B772-57B1909766F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
   <si>
     <t>Time Series Forecast</t>
   </si>
@@ -237,7 +237,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -277,23 +277,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -635,10 +632,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I42"/>
+  <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -653,13 +650,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -1087,236 +1084,372 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>45484</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="16">
+        <v>-5.7999999999999996E-3</v>
+      </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>45484</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16">
+        <v>8.3999999999999995E-3</v>
+      </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>45484</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="16">
+        <v>2.3E-3</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>45484</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="16">
+        <v>4.8999999999999998E-4</v>
+      </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>45484</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="16">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="16">
+        <v>-1.8E-3</v>
+      </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>45484</v>
       </c>
-      <c r="E32" s="18">
-        <v>0.22</v>
-      </c>
-      <c r="F32" s="17"/>
+      <c r="E32" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F32" s="16">
+        <v>-2.8999999999999998E-3</v>
+      </c>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>45484</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="16">
+        <v>-3.3E-3</v>
+      </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>45484</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="16">
+        <v>-6.7999999999999996E-3</v>
+      </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>45485</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="16">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>45485</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="E36" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <v>45485</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="16">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="15">
         <v>45485</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="E38" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="15">
         <v>45485</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>45485</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="E40" s="16">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <v>45485</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="16">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <v>45485</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="E42" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="15">
+        <v>45486</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="15">
+        <v>45486</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="15">
+        <v>45486</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="15">
+        <v>45486</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="15">
+        <v>45486</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="15">
+        <v>45486</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="15">
+        <v>45486</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="15">
+        <v>45486</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>

--- a/prediction_accuracy.xlsx
+++ b/prediction_accuracy.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarav/Documents/website/stock_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8FF0B5-E8DE-5042-B772-57B1909766F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926CE16-B088-534A-8C98-23C3F017E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="time_series" sheetId="1" r:id="rId1"/>
+    <sheet name="forecast_TS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">time_series!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">forecast_TS!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
-  <si>
-    <t>Time Series Forecast</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="21">
   <si>
     <t>Company Name</t>
   </si>
@@ -237,7 +234,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -288,9 +285,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -407,8 +401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:F26" totalsRowShown="0" headerRowCellStyle="Heading 1">
-  <autoFilter ref="B2:F26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B1:F25" totalsRowShown="0" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B1:F25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company Name" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ticker" dataDxfId="3" dataCellStyle="Date"/>
@@ -632,10 +626,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I50"/>
+  <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -649,64 +643,72 @@
     <col min="7" max="7" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+    </row>
+    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45481</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
     </row>
     <row r="3" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7">
         <v>45481</v>
       </c>
       <c r="E3" s="5">
-        <v>1.6999999999999999E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="F3" s="5">
-        <v>1.2999999999999999E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
         <v>45481</v>
       </c>
       <c r="E4" s="5">
-        <v>-2.3E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="F4" s="5">
-        <v>-3.5000000000000001E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -714,33 +716,33 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
         <v>45481</v>
       </c>
-      <c r="E5" s="5">
-        <v>1E-4</v>
+      <c r="E5" s="6">
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="F5" s="5">
-        <v>8.2000000000000007E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="7">
         <v>45481</v>
       </c>
       <c r="E6" s="6">
-        <v>-5.9999999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>7.6E-3</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -748,21 +750,21 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
         <v>45481</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F7" s="5">
-        <v>-3.7000000000000002E-3</v>
+        <v>-1.14E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -771,78 +773,78 @@
         <v>45481</v>
       </c>
       <c r="E8" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F8" s="5">
-        <v>-1.14E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="7">
         <v>45481</v>
       </c>
       <c r="E9" s="6">
-        <v>2.3E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F9" s="5">
-        <v>-4.8999999999999998E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="E10" s="6">
-        <v>8.0000000000000004E-4</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F10" s="5">
-        <v>-9.4999999999999998E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>6</v>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
         <v>45482</v>
       </c>
       <c r="E11" s="6">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F11" s="5">
-        <v>9.2999999999999992E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
         <v>45482</v>
       </c>
       <c r="E12" s="6">
-        <v>1.5E-3</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="F12" s="5">
-        <v>2.9999999999999997E-4</v>
+        <v>-3.3E-3</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -850,33 +852,33 @@
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
         <v>45482</v>
       </c>
       <c r="E13" s="6">
-        <v>-6.9999999999999999E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F13" s="5">
-        <v>-3.3E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="7">
         <v>45482</v>
       </c>
       <c r="E14" s="6">
-        <v>8.9999999999999998E-4</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F14" s="5">
-        <v>-8.0000000000000002E-3</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -884,21 +886,21 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7">
         <v>45482</v>
       </c>
       <c r="E15" s="6">
-        <v>1.6999999999999999E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="F15" s="5">
-        <v>-2.3999999999999998E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -907,69 +909,69 @@
         <v>45482</v>
       </c>
       <c r="E16" s="6">
-        <v>4.7000000000000002E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="F16" s="5">
-        <v>-5.0000000000000001E-4</v>
+        <v>6.5199999999999994E-2</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D17" s="7">
         <v>45482</v>
       </c>
       <c r="E17" s="6">
-        <v>5.3E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F17" s="5">
-        <v>6.5199999999999994E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>21</v>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="E18" s="6">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F18" s="5">
-        <v>7.4000000000000003E-3</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>6</v>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
         <v>45483</v>
       </c>
       <c r="E19" s="6">
-        <v>1.8E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F19" s="5">
-        <v>-4.4000000000000003E-3</v>
+        <v>-1.43E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7">
         <v>45483</v>
@@ -978,7 +980,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="F20" s="5">
-        <v>-1.43E-2</v>
+        <v>-5.3E-3</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -986,33 +988,33 @@
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
         <v>45483</v>
       </c>
       <c r="E21" s="6">
-        <v>8.9999999999999998E-4</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="F21" s="5">
-        <v>-5.3E-3</v>
+        <v>-3.8E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D22" s="7">
         <v>45483</v>
       </c>
       <c r="E22" s="6">
-        <v>-1.1000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F22" s="5">
-        <v>-3.8E-3</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,21 +1022,21 @@
         <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7">
         <v>45483</v>
       </c>
       <c r="E23" s="6">
-        <v>2.0000000000000001E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="F23" s="5">
-        <v>-1.9199999999999998E-2</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>17</v>
@@ -1043,79 +1045,80 @@
         <v>45483</v>
       </c>
       <c r="E24" s="6">
-        <v>1.9E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="F24" s="5">
-        <v>-4.7000000000000002E-3</v>
+        <v>-4.3E-3</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D25" s="7">
         <v>45483</v>
       </c>
       <c r="E25" s="6">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F25" s="5">
-        <v>-4.3E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="7">
-        <v>45483</v>
-      </c>
-      <c r="E26" s="6">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F26" s="5">
-        <v>-3.8999999999999998E-3</v>
-      </c>
+      <c r="B26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="15">
+        <v>45484</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F26" s="16">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="15">
         <v>45484</v>
       </c>
       <c r="E27" s="16">
-        <v>1.6999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="F27" s="16">
-        <v>-5.7999999999999996E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="15">
         <v>45484</v>
       </c>
       <c r="E28" s="16">
-        <v>4.1000000000000003E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F28" s="16">
-        <v>8.3999999999999995E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="I28" s="6"/>
     </row>
@@ -1124,34 +1127,34 @@
         <v>10</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="15">
         <v>45484</v>
       </c>
       <c r="E29" s="16">
-        <v>2.0999999999999999E-3</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="F29" s="16">
-        <v>2.3E-3</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D30" s="15">
         <v>45484</v>
       </c>
       <c r="E30" s="16">
-        <v>-4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F30" s="16">
-        <v>4.8999999999999998E-4</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="I30" s="6"/>
     </row>
@@ -1160,22 +1163,22 @@
         <v>15</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31" s="15">
         <v>45484</v>
       </c>
       <c r="E31" s="16">
-        <v>2.9999999999999997E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F31" s="16">
-        <v>-1.8E-3</v>
-      </c>
-      <c r="I31" s="6"/>
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>17</v>
@@ -1184,127 +1187,136 @@
         <v>45484</v>
       </c>
       <c r="E32" s="16">
-        <v>2.2000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F32" s="16">
-        <v>-2.8999999999999998E-3</v>
-      </c>
-      <c r="I32" s="9"/>
+        <v>-3.3E-3</v>
+      </c>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="D33" s="15">
         <v>45484</v>
       </c>
       <c r="E33" s="16">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F33" s="16">
-        <v>-3.3E-3</v>
+        <v>-6.7999999999999996E-3</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D34" s="15">
-        <v>45484</v>
+        <v>45485</v>
       </c>
       <c r="E34" s="16">
-        <v>2.8999999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F34" s="16">
-        <v>-6.7999999999999996E-3</v>
-      </c>
-      <c r="I34" s="6"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="15">
         <v>45485</v>
       </c>
       <c r="E35" s="16">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F35" s="16"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F35" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="15">
         <v>45485</v>
       </c>
       <c r="E36" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="F36" s="16"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F36" s="16">
+        <v>3.2500000000000001E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="15">
         <v>45485</v>
       </c>
       <c r="E37" s="16">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="F37" s="16"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F37" s="16">
+        <v>1.0699999999999999E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D38" s="15">
         <v>45485</v>
       </c>
       <c r="E38" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="F38" s="16"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F38" s="16">
+        <v>6.59E-2</v>
+      </c>
     </row>
     <row r="39" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D39" s="15">
         <v>45485</v>
       </c>
       <c r="E39" s="16">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="F39" s="16"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F39" s="16">
+        <v>-4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="40" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>17</v>
@@ -1313,149 +1325,71 @@
         <v>45485</v>
       </c>
       <c r="E40" s="16">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="F40" s="16"/>
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="F40" s="16">
+        <v>-9.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="41" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="D41" s="15">
         <v>45485</v>
       </c>
       <c r="E41" s="16">
-        <v>-2.3999999999999998E-3</v>
-      </c>
-      <c r="F41" s="16"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F41" s="16">
+        <v>9.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="42" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="15">
-        <v>45485</v>
-      </c>
-      <c r="E42" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="F42" s="16"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
     </row>
     <row r="43" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="15">
-        <v>45486</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
     </row>
     <row r="44" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="15">
-        <v>45486</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
     </row>
     <row r="45" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="15">
-        <v>45486</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
     </row>
     <row r="46" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="15">
-        <v>45486</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
     </row>
     <row r="47" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="15">
-        <v>45486</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
     </row>
     <row r="48" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="15">
-        <v>45486</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="15">
-        <v>45486</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="15">
-        <v>45486</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
